--- a/biology/Botanique/Odette_Aicardi/Odette_Aicardi.xlsx
+++ b/biology/Botanique/Odette_Aicardi/Odette_Aicardi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Odette Aicardi (1931-2008) est une enseignante et une botaniste spécialisée en bryologie.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Odette Aicardi est née à Versailles le 1er mai 1931, elle est la cadette d'une famille de neuf enfants. À partir de 1992, elle passe sa retraite auprès de ses huit frères et sœurs et ses nombreux neveux et nièces à Antony (Hauts-de-Seine) où elle décède le 11 juillet 2008[1],[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Odette Aicardi est née à Versailles le 1er mai 1931, elle est la cadette d'une famille de neuf enfants. À partir de 1992, elle passe sa retraite auprès de ses huit frères et sœurs et ses nombreux neveux et nièces à Antony (Hauts-de-Seine) où elle décède le 11 juillet 2008.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après des études au lycée de Versailles puis à l'Ecole Normale Supérieure de l'Enseignement Technique (ENSET), elle obtient le Certificat d’Aptitude Professionnelle à l’Enseignement Technique et devient professeur de sciences physiques tout d'abord à Quimper au lycée Paraclet puis à Tours au lycée Choiseul (1971), au lycée Grammont (1972-1991)[4].
-Odette Aicardi montre très vite un intérêt pour la botanique (inventaire de plantes protégées) et participe, d'abord, à la collecte en Indre et Loire[5] puis contribue à l'inventaire de la bryoflore française à partir de 1991[6] jusqu'en 2008[7],[8],[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après des études au lycée de Versailles puis à l'Ecole Normale Supérieure de l'Enseignement Technique (ENSET), elle obtient le Certificat d’Aptitude Professionnelle à l’Enseignement Technique et devient professeur de sciences physiques tout d'abord à Quimper au lycée Paraclet puis à Tours au lycée Choiseul (1971), au lycée Grammont (1972-1991).
+Odette Aicardi montre très vite un intérêt pour la botanique (inventaire de plantes protégées) et participe, d'abord, à la collecte en Indre et Loire puis contribue à l'inventaire de la bryoflore française à partir de 1991 jusqu'en 2008.
 Elle fait partie du groupe d'échanges de bryophytes (Boudier P), contribue à l'index synonymique des bryophytes de France (Granger C), centralise toute donnée ou observation de bryophytes en collaborant avec les bryologues français et européens.
 Elle est membre de sociétés savantes : Société botanique du Centre-Ouest, Société d'Etudes de Protection et d'Aménagement de la Nature en Touraine (SEPANT), Société de Botanique de France, Naturalistes parisiens, British Bryological Society.
 </t>
@@ -576,7 +592,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1989. Récoltes bryologiques 1988 en Indre-et-Loire. Bull. Soc. Bot. Centre-Ouest (nouv. sér.), 20 : 171-172.
 1991. Contribution à l'inventaire de la bryoflore française (Année 1991). Bull. Soc. Bot. Centre-Ouest, NS, 23. Par Aicardi O., Boudier P., Fesolowicz P. et al.
